--- a/biology/Histoire de la zoologie et de la botanique/Charles_Athanase_Walckenaer/Charles_Athanase_Walckenaer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Athanase_Walckenaer/Charles_Athanase_Walckenaer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Athanase, baron Walckenaer, né le 25 décembre 1771 à Paris et mort le 26 avril 1852 à Paris, est un naturaliste et préfet français. Il est fait baron en 1823.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Charles-Athanase Walckenaer est le fils naturel de Charles-Nicolas Duclos du Fresnoy, notaire royal à Paris, rue Vivienne, et d’Anne Pajot de Villeperrot, fille de Pierre-Maximilien Pajot, seigneur de Villeperrot, maréchal de camp.
 Son père est mécène de Jean-Baptiste Greuze. Par son mariage avec Joséphine Marcotte de Pyn, Charles-Athanase Walckenaer intègre le réseau familial artistique constitué de ses beaux-frères Charles Marcotte d'Argenteuil et Philippe Marcotte de Quivières, Cécile Bochet, Henry Panckoucke, Jean-Louis Lacroix, Delphine Ramel, Jean-Auguste-Dominique Ingres qui réalise son portrait à la mine de plomb ainsi que celui de son épouse, Alexandre Legentil, Jacques-Raoul Tournouër, Augustin Marcotte de Quivières, Hubert Rohault de Fleury, etc.
@@ -521,7 +535,7 @@
 Il participe, en 1832, à la fondation de la Société entomologique de France, et devient, en 1840, secrétaire perpétuel de l'Académie des inscriptions et belles-lettres. La même année, il devient conservateur au département des cartes de la bibliothèque royale de Paris.
 Walckenaer introduit le style biographique suivant le modèle anglais dans la littérature française avec son Histoire de la vie et des ouvrages de la Fontaine (1820, quatrième édition en 1858), son Histoire de la vie et des poésies d'Horace (1840, réédité en 1858) et ses Mémoires touchent la vie et les écrits de Mme de Sévigné (six volumes, 1842-1865). Son édition des œuvres de La Bruyère, qu'il publie en 1845, lui permet de revenir au texte d'origine. Il est l'un des huit membres fondateurs de la Société des bibliophiles français en 1820.
 En géographie, il fait paraître Le Monde maritime (quatre volumes, 1818), Histoire générale des voyages (vingt-et-un volumes, 1826-1831) et Géographie ancienne, historique et comparée des Gaules (trois volumes, 1839, réédité en 1862). En entomologie, il fait paraître, parmi de nombreuses autres publications, une Histoire naturelle des insectes (quatre volumes, 1836-1847) avec Paul Gervais (1816-1879).
-Le baron Walckenaer est inhumé au cimetière du Père-Lachaise (20e division)[2].
+Le baron Walckenaer est inhumé au cimetière du Père-Lachaise (20e division).
 </t>
         </is>
       </c>
@@ -550,14 +564,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1798 - Étude anthropologique: Essai sur l'histoire de l'espèce humaine, du Pont, Paris. 1798.
 1799 - Roman: L'île de Wight, ou Charles et Angélica. - éd.Denné. 1799.
-1802 - Étude scientifique -(Entomologie): Faune parisienne, insectes, ou Histoire abrégée des insectes de Paris classés d'après le système de Fabricius. - Précédée d'un discours sur les insectes en général, poursuivi d'introduction à l'étude de l'entomologie et accompagnée de 7 planches gravées. - éd. Dentu. Paris.1802. [1] [2]
+1802 - Étude scientifique -(Entomologie): Faune parisienne, insectes, ou Histoire abrégée des insectes de Paris classés d'après le système de Fabricius. - Précédée d'un discours sur les insectes en général, poursuivi d'introduction à l'étude de l'entomologie et accompagnée de 7 planches gravées. - éd. Dentu. Paris.1802.  
 1803 - Roman: Histoire d'Eugénie racontée par une ex-religieuse du couvent de .... Dentu, Paris, 1803.
 1816 - Cosmologie, Chez Deterville ( Paris ), 1816, texte disponible en ligne sur IRIS
-1823 - Histoire littéraire: Histoire de la vie et des ouvrages de J. de La Fontaine. (2 vol.)- éd. A. Nepveu. Paris. 1823. [3] [4]
+1823 - Histoire littéraire: Histoire de la vie et des ouvrages de J. de La Fontaine. (2 vol.)- éd. A. Nepveu. Paris. 1823.  
 1828 - Histoire des Voyages: Histoire des Voyages ou Nouvelle Collection des relations de Voyage par mer et par terre. (21 vol.)- éd.Lefèvre. Paris. 1828.
 1829 - Histoire-Géographie: Le Monde Maritime, ou Tableau géographique et historique de l'Archipel d'Orient, de la Polynésie et de l'Australie. éd. Nepveu. Paris. 1829.
 1830 - Vies de plusieurs personnages célèbres des temps anciens et modernes, Paris 1830.
@@ -570,7 +586,7 @@
 1839 - Histoire-Géographie: Atlas de la Géographie ancienne, historique et comparée des Gaules Cisalpine et Transalpine. - éd. Dufaut. Paris. 1839.
 1840 - Histoire littéraire: Histoire de la Vie et des Poésies d'Horace- . Librairie L. Michaud. 1840.
 1848 - Biographie (science): Notice Historique sur la Vie de M. Colebrooke- Firmin Didot. Paris. 1848.
-1857 - Histoire littéraire: Mémoires touchant la vie et les écrits de Marie de Rabutin-Chantal, dame de Bourbilly, marquise de Sévigné. - éd.Didot, père et fils. Paris. 1857. [5]
+1857 - Histoire littéraire: Mémoires touchant la vie et les écrits de Marie de Rabutin-Chantal, dame de Bourbilly, marquise de Sévigné. - éd.Didot, père et fils. Paris. 1857. 
 Tome 1 - Durant la Régence et la Fronde.
 Tome 2 - Durant le Ministère du cardinal Mazarin et la jeunesse de Louis XIV.
 Tome 3 - Durant les premières conquêtes de Louis XIV.
@@ -603,7 +619,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce texte utilise des extraits de l'article de langue anglaise de Wikipédia (version du 31 janvier 2006) ainsi que la biographie universelle Michaud.</t>
         </is>
